--- a/deployment/Omaha_Cal_Info_GA05MOAS-GL494_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GA05MOAS-GL494_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\GA05MOAS-GL494\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6156" yWindow="7116" windowWidth="27036" windowHeight="10404" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="6150" yWindow="7110" windowWidth="27030" windowHeight="10410" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
   <si>
     <t>Ref Des</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>N00402</t>
+  </si>
+  <si>
+    <t>OL000109</t>
+  </si>
+  <si>
+    <t>GL494 Controller</t>
   </si>
 </sst>
 </file>
@@ -538,7 +544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,7 +579,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -788,20 +794,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" customWidth="1"/>
-    <col min="12" max="12" width="33.6640625" customWidth="1"/>
-    <col min="13" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="33.7109375" customWidth="1"/>
+    <col min="13" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
@@ -839,7 +845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -881,11 +887,11 @@
         <v>-42.455928333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
@@ -905,22 +911,22 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="4" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -946,7 +952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -975,7 +981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1033,7 +1039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1071,7 +1077,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1104,7 +1110,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
@@ -1128,7 +1134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1137,7 +1143,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -1150,16 +1156,18 @@
       <c r="D11" s="9">
         <v>1</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9">
-        <v>494</v>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="G11" s="9"/>
       <c r="I11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>

--- a/deployment/Omaha_Cal_Info_GA05MOAS-GL494_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GA05MOAS-GL494_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="7110" windowWidth="27030" windowHeight="10410" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="6160" yWindow="7120" windowWidth="27040" windowHeight="10420" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$104</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -544,7 +539,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -579,7 +574,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -790,24 +785,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="33.7109375" customWidth="1"/>
-    <col min="13" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.6640625" customWidth="1"/>
+    <col min="13" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="42">
       <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
@@ -845,7 +841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -864,7 +860,9 @@
       <c r="F2" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="7">
+        <v>42323</v>
+      </c>
       <c r="H2" s="10" t="s">
         <v>21</v>
       </c>
@@ -887,11 +885,11 @@
         <v>-42.455928333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
@@ -910,23 +908,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="28">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -952,7 +950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -981,7 +979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -1010,7 +1008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="3" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1039,7 +1037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="3" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1068,7 +1066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="3" customFormat="1">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1077,7 +1075,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="3" customFormat="1">
       <c r="A7" s="9" t="s">
         <v>25</v>
       </c>
@@ -1101,7 +1099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="3" customFormat="1">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1110,7 +1108,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="3" customFormat="1">
       <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
@@ -1134,7 +1132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="3" customFormat="1">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1143,7 +1141,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="3" customFormat="1">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -1167,7 +1165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="3" customFormat="1">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>

--- a/deployment/Omaha_Cal_Info_GA05MOAS-GL494_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GA05MOAS-GL494_00001.xlsx
@@ -30,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$104</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -786,7 +786,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -870,7 +870,7 @@
         <v>22</v>
       </c>
       <c r="J2" s="6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>28</v>

--- a/deployment/Omaha_Cal_Info_GA05MOAS-GL494_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GA05MOAS-GL494_00001.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>Ref Des</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>GL494 Controller</t>
+  </si>
+  <si>
+    <t>Glider lost</t>
   </si>
 </sst>
 </file>
@@ -786,7 +789,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -861,7 +864,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="G2" s="7">
-        <v>42323</v>
+        <v>42087</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>21</v>
@@ -875,7 +878,9 @@
       <c r="K2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="5"/>
+      <c r="L2" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="M2" s="11">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
         <v>-42.922756666666665</v>
